--- a/biology/Médecine/Maladie_complexe/Maladie_complexe.xlsx
+++ b/biology/Médecine/Maladie_complexe/Maladie_complexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies complexes sont des maladies dont l'étiologie est multifactorielle. Très fréquentes, elles forment une centaine de maladies encore mal connues malgré leur fréquence.
 Elles sont dus à l'interaction entre un profil génétique particulier et un environnement particulier. 
@@ -513,9 +525,11 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Quelques exemples de maladies complexes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Quelques exemples de maladies complexes :
 obésité ;
 diabète ;
 maladies cardio-vasculaires (hypertension artérielle, athérome et athérosclérose) ;
@@ -549,7 +563,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incidence des maladies complexes affiche une augmentation constante. Les cancers étaient imputés dans 3,5 % des décès en 1906, 11,5 % en 1945 et 26,9 % en 1990. Les maladies cardio-vasculaires étaient responsables de 12,5 % des décès en 1906, 27,3 % en 1945 et 33,4 % en 1990 ; ils sont cependant en baisse depuis.
 Entre 1994 et 2004, ces affections de longue durée (ALD) ont progressé de 73,5 % (+84 % pour le cancer ; +83 % pour le diabète).
@@ -582,7 +598,9 @@
           <t>Économie de la santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après l’OMS[réf. nécessaire], les ALD représentent 60 % de nos dépenses de santé.
 </t>
@@ -613,7 +631,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l’OMS[réf. nécessaire], 40 % des cancers et 80 % des maladies cardiovasculaires et des diabètes type 2 sont provoqués par un déséquilibre alimentaire et le contexte environnemental. 
 </t>
